--- a/data/trans_orig/IP19C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6951121-B2CA-46D7-811F-933B47D483CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A692FB25-FDB0-4D9F-B97B-330110EF1B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{970A3A6F-4003-4430-8671-A85535F82537}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4A65D365-3FBC-489D-B4EB-EC2E7810F599}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -107,6 +107,63 @@
     <t>2,86%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -125,9 +182,6 @@
     <t>89,38%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
     <t>92,81%</t>
   </si>
   <si>
@@ -149,9 +203,6 @@
     <t>7,41%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
     <t>10,62%</t>
   </si>
   <si>
@@ -164,57 +215,6 @@
     <t>9,49%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
     <t>92,92%</t>
   </si>
   <si>
@@ -284,6 +284,60 @@
     <t>4,34%</t>
   </si>
   <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
     <t>94,45%</t>
   </si>
   <si>
@@ -332,60 +386,6 @@
     <t>8,03%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
     <t>94,27%</t>
   </si>
   <si>
@@ -467,6 +467,60 @@
     <t>19,05%</t>
   </si>
   <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
     <t>96,17%</t>
   </si>
   <si>
@@ -509,60 +563,6 @@
     <t>5,16%</t>
   </si>
   <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
     <t>96,08%</t>
   </si>
   <si>
@@ -644,6 +644,42 @@
     <t>10,95%</t>
   </si>
   <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
     <t>96,93%</t>
   </si>
   <si>
@@ -690,42 +726,6 @@
   </si>
   <si>
     <t>4,51%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
   </si>
   <si>
     <t>98,02%</t>
@@ -1159,7 +1159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FCE72F-786F-4DD3-BFF0-2C344DCF1573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A50A87C-1BE8-4650-A355-B0C785EB30D9}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1432,10 +1432,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>320</v>
+        <v>156</v>
       </c>
       <c r="D7" s="7">
-        <v>214321</v>
+        <v>102156</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1447,10 +1447,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="I7" s="7">
-        <v>206129</v>
+        <v>102052</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1462,10 +1462,10 @@
         <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>626</v>
+        <v>307</v>
       </c>
       <c r="N7" s="7">
-        <v>420450</v>
+        <v>204208</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -1483,10 +1483,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>16059</v>
+        <v>9560</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1498,10 +1498,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>16501</v>
+        <v>4018</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1513,10 +1513,10 @@
         <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>32560</v>
+        <v>13578</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1534,10 +1534,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>230380</v>
+        <v>111716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1549,10 +1549,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1564,10 +1564,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>453010</v>
+        <v>217786</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1587,10 +1587,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>102156</v>
+        <v>214321</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1599,28 +1599,28 @@
         <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c r="I10" s="7">
-        <v>102052</v>
+        <v>206129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
-        <v>307</v>
+        <v>626</v>
       </c>
       <c r="N10" s="7">
-        <v>204208</v>
+        <v>420450</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>47</v>
@@ -1638,40 +1638,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>9560</v>
+        <v>16059</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>4018</v>
+        <v>16501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N11" s="7">
-        <v>13578</v>
+        <v>32560</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>55</v>
@@ -1689,10 +1689,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>111716</v>
+        <v>230380</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1704,10 +1704,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1719,10 +1719,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="N12" s="7">
-        <v>217786</v>
+        <v>453010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1905,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21FE632-F4FE-4AF8-9FB0-D10DAC4DC9ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F388D60-942C-419C-8693-4728A1CE4892}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2032,7 +2032,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2086,7 +2086,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="D7" s="7">
-        <v>207429</v>
+        <v>123888</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>81</v>
@@ -2193,10 +2193,10 @@
         <v>83</v>
       </c>
       <c r="H7" s="7">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="I7" s="7">
-        <v>200340</v>
+        <v>115738</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>84</v>
@@ -2208,10 +2208,10 @@
         <v>86</v>
       </c>
       <c r="M7" s="7">
-        <v>593</v>
+        <v>331</v>
       </c>
       <c r="N7" s="7">
-        <v>407769</v>
+        <v>239627</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>87</v>
@@ -2220,7 +2220,7 @@
         <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2229,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>12188</v>
+        <v>8790</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>12833</v>
+        <v>9387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>25021</v>
+        <v>18177</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,10 +2280,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="D9" s="7">
-        <v>219617</v>
+        <v>132678</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2295,10 +2295,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="I9" s="7">
-        <v>213173</v>
+        <v>125125</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2310,10 +2310,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="N9" s="7">
-        <v>432790</v>
+        <v>257804</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2333,49 +2333,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>169</v>
+        <v>307</v>
       </c>
       <c r="D10" s="7">
-        <v>123888</v>
+        <v>207429</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="I10" s="7">
-        <v>115738</v>
+        <v>200340</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
-        <v>331</v>
+        <v>593</v>
       </c>
       <c r="N10" s="7">
-        <v>239627</v>
+        <v>407769</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,46 +2384,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>8790</v>
+        <v>12188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>9387</v>
+        <v>12833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N11" s="7">
-        <v>18177</v>
+        <v>25021</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>114</v>
@@ -2435,10 +2435,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>132678</v>
+        <v>219617</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2450,10 +2450,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="I12" s="7">
-        <v>125125</v>
+        <v>213173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2465,10 +2465,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>356</v>
+        <v>629</v>
       </c>
       <c r="N12" s="7">
-        <v>257804</v>
+        <v>432790</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2515,7 +2515,7 @@
         <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>967</v>
@@ -2563,7 +2563,7 @@
         <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>127</v>
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943F22E4-06D2-4ECF-A8B7-772B3821C2E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E077F1-34F4-4EDA-8A51-70E32E682772}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2924,10 +2924,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="D7" s="7">
-        <v>216607</v>
+        <v>127850</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>142</v>
@@ -2939,34 +2939,34 @@
         <v>144</v>
       </c>
       <c r="H7" s="7">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="I7" s="7">
-        <v>214819</v>
+        <v>119217</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
-        <v>596</v>
+        <v>364</v>
       </c>
       <c r="N7" s="7">
-        <v>431426</v>
+        <v>247067</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2975,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>8629</v>
+        <v>5816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>7363</v>
+        <v>11170</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>15992</v>
+        <v>16986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +3026,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>305</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7">
-        <v>225236</v>
+        <v>133666</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3041,10 +3041,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>314</v>
+        <v>197</v>
       </c>
       <c r="I9" s="7">
-        <v>222182</v>
+        <v>130387</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3056,10 +3056,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>619</v>
+        <v>388</v>
       </c>
       <c r="N9" s="7">
-        <v>447418</v>
+        <v>264053</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3079,49 +3079,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="D10" s="7">
-        <v>127850</v>
+        <v>216607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
-        <v>181</v>
+        <v>303</v>
       </c>
       <c r="I10" s="7">
-        <v>119217</v>
+        <v>214819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>364</v>
+        <v>596</v>
       </c>
       <c r="N10" s="7">
-        <v>247067</v>
+        <v>431426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,43 +3130,43 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>5816</v>
+        <v>8629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>11170</v>
+        <v>7363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>16986</v>
+        <v>15992</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>172</v>
@@ -3181,10 +3181,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="D12" s="7">
-        <v>133666</v>
+        <v>225236</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3196,10 +3196,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="I12" s="7">
-        <v>130387</v>
+        <v>222182</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3211,10 +3211,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>388</v>
+        <v>619</v>
       </c>
       <c r="N12" s="7">
-        <v>264053</v>
+        <v>447418</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3258,7 +3258,7 @@
         <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>178</v>
@@ -3276,7 +3276,7 @@
         <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,7 +3312,7 @@
         <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -3324,7 +3324,7 @@
         <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>187</v>
@@ -3397,7 +3397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E078ADD-CD24-4E0D-BD0A-F2AE7E68667B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1DED62-153F-4E39-A552-36617F768A46}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3670,25 +3670,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>364</v>
+        <v>149</v>
       </c>
       <c r="D7" s="7">
-        <v>309813</v>
+        <v>119541</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>202</v>
       </c>
       <c r="H7" s="7">
-        <v>357</v>
+        <v>140</v>
       </c>
       <c r="I7" s="7">
-        <v>263872</v>
+        <v>102227</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>203</v>
@@ -3700,19 +3700,19 @@
         <v>205</v>
       </c>
       <c r="M7" s="7">
-        <v>721</v>
+        <v>289</v>
       </c>
       <c r="N7" s="7">
-        <v>573684</v>
+        <v>221768</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,49 +3721,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>9824</v>
+        <v>4179</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="7">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9305</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8469</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>20</v>
+      </c>
+      <c r="N8" s="7">
+        <v>13484</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="7">
-        <v>24</v>
-      </c>
-      <c r="N8" s="7">
-        <v>18294</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,10 +3772,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>319637</v>
+        <v>123720</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3787,10 +3787,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="I9" s="7">
-        <v>272341</v>
+        <v>111532</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3802,10 +3802,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>745</v>
+        <v>309</v>
       </c>
       <c r="N9" s="7">
-        <v>591978</v>
+        <v>235252</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3825,49 +3825,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>149</v>
+        <v>364</v>
       </c>
       <c r="D10" s="7">
-        <v>119541</v>
+        <v>309813</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="7">
+        <v>357</v>
+      </c>
+      <c r="I10" s="7">
+        <v>263872</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>721</v>
+      </c>
+      <c r="N10" s="7">
+        <v>573684</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="7">
-        <v>140</v>
-      </c>
-      <c r="I10" s="7">
-        <v>102227</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M10" s="7">
-        <v>289</v>
-      </c>
-      <c r="N10" s="7">
-        <v>221768</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,46 +3876,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>4179</v>
+        <v>9824</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8469</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9305</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>18294</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="M11" s="7">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7">
-        <v>13484</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>228</v>
@@ -3927,10 +3927,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="D12" s="7">
-        <v>123720</v>
+        <v>319637</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3942,10 +3942,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="I12" s="7">
-        <v>111532</v>
+        <v>272341</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3957,10 +3957,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>309</v>
+        <v>745</v>
       </c>
       <c r="N12" s="7">
-        <v>235252</v>
+        <v>591978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3989,7 +3989,7 @@
         <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>229</v>
@@ -4043,7 +4043,7 @@
         <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>

--- a/data/trans_orig/IP19C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A692FB25-FDB0-4D9F-B97B-330110EF1B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A9E37C-4F17-4CD0-94F3-BBF4E48B6F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4A65D365-3FBC-489D-B4EB-EC2E7810F599}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32E8A1BA-D7FC-44F3-A29B-C1AD2EDB4BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="319">
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -77,148 +95,217 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,04%</t>
+    <t>55,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>90,5%</t>
+    <t>90,55%</t>
   </si>
   <si>
     <t>94,76%</t>
@@ -227,547 +314,688 @@
     <t>94,15%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2015 (Tasa respuesta: 48,87%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2015 (Tasa respuesta: 48,87%)</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
 </sst>
 </file>
@@ -778,7 +1006,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -874,39 +1102,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -958,7 +1186,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1069,13 +1297,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1084,6 +1305,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1148,19 +1376,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A50A87C-1BE8-4650-A355-B0C785EB30D9}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6AB9E-1333-411F-9197-C55614E6E335}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1277,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>19635</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1292,34 +1540,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22230</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>41865</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,10 +1576,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1893</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1343,34 +1591,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3906</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>5799</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,49 +1627,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22230</v>
+        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>41865</v>
+        <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>102156</v>
+        <v>3454</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1447,10 +1695,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>102052</v>
+        <v>2273</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1462,10 +1710,10 @@
         <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>307</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>204208</v>
+        <v>5727</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -1483,10 +1731,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7">
-        <v>9560</v>
+        <v>76964</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1498,10 +1746,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>4018</v>
+        <v>82062</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1513,10 +1761,10 @@
         <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="N8" s="7">
-        <v>13578</v>
+        <v>159026</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1534,49 +1782,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7">
-        <v>111716</v>
+        <v>80418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>106070</v>
+        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>217786</v>
+        <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,10 +1835,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>320</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>214321</v>
+        <v>9932</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1602,10 +1850,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>306</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>206129</v>
+        <v>4559</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1614,22 +1862,22 @@
         <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>626</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>420450</v>
+        <v>14490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,49 +1886,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="D11" s="7">
-        <v>16059</v>
+        <v>95787</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="I11" s="7">
-        <v>16501</v>
+        <v>94634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="N11" s="7">
-        <v>32560</v>
+        <v>190422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,102 +1937,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7">
-        <v>230380</v>
+        <v>105719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>222630</v>
+        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>453010</v>
+        <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>507</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>336112</v>
+        <v>12234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>492</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>330411</v>
+        <v>13688</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>999</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>666523</v>
+        <v>25921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1793,49 +2041,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D14" s="7">
-        <v>25619</v>
+        <v>161467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="I14" s="7">
-        <v>20519</v>
+        <v>149809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
-        <v>68</v>
+        <v>463</v>
       </c>
       <c r="N14" s="7">
-        <v>46138</v>
+        <v>311276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,55 +2092,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>261</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173701</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>337197</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25619</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7">
+        <v>20519</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>68</v>
+      </c>
+      <c r="N16" s="7">
+        <v>46138</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>507</v>
+      </c>
+      <c r="D17" s="7">
+        <v>336112</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="7">
+        <v>492</v>
+      </c>
+      <c r="I17" s="7">
+        <v>330411</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="7">
+        <v>999</v>
+      </c>
+      <c r="N17" s="7">
+        <v>666523</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>522</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>350930</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1067</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>712661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1905,8 +2314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F388D60-942C-419C-8693-4728A1CE4892}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4CB9F8-6433-4571-9486-C28D900622C9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1922,7 +2331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2023,49 +2432,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13707</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>15693</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>29399</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,49 +2483,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3298</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3967</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2534,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>15693</v>
+        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>29399</v>
+        <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,49 +2587,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>123888</v>
+        <v>5320</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>115738</v>
+        <v>6807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>239627</v>
+        <v>12127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2638,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D8" s="7">
-        <v>8790</v>
+        <v>86744</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="I8" s="7">
-        <v>9387</v>
+        <v>70881</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="N8" s="7">
-        <v>18177</v>
+        <v>157624</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,49 +2689,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7">
-        <v>132678</v>
+        <v>92064</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I9" s="7">
-        <v>125125</v>
+        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="N9" s="7">
-        <v>257804</v>
+        <v>169751</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,49 +2742,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>307</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>207429</v>
+        <v>7181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>200340</v>
+        <v>6808</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
-        <v>593</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>407769</v>
+        <v>13989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,49 +2793,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D11" s="7">
-        <v>12188</v>
+        <v>124905</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="I11" s="7">
-        <v>12833</v>
+        <v>118278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="N11" s="7">
-        <v>25021</v>
+        <v>243183</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,102 +2844,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
-        <v>219617</v>
+        <v>132086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7">
-        <v>213173</v>
+        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>629</v>
+        <v>368</v>
       </c>
       <c r="N12" s="7">
-        <v>432790</v>
+        <v>257172</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>495</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>345024</v>
+        <v>8478</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
-        <v>472</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>331771</v>
+        <v>8605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
-        <v>967</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>676793</v>
+        <v>17083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,49 +2948,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="D14" s="7">
-        <v>20978</v>
+        <v>132705</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I14" s="7">
-        <v>22220</v>
+        <v>139315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="N14" s="7">
-        <v>43199</v>
+        <v>272020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,55 +2999,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>141183</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>211</v>
+      </c>
+      <c r="I15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>420</v>
+      </c>
+      <c r="N15" s="7">
+        <v>289103</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20978</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="7">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7">
+        <v>22220</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="7">
+        <v>61</v>
+      </c>
+      <c r="N16" s="7">
+        <v>43199</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>495</v>
+      </c>
+      <c r="D17" s="7">
+        <v>345024</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="7">
+        <v>472</v>
+      </c>
+      <c r="I17" s="7">
+        <v>331771</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" s="7">
+        <v>967</v>
+      </c>
+      <c r="N17" s="7">
+        <v>676793</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>366002</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>504</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>353991</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1028</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>719992</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2651,8 +3221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E077F1-34F4-4EDA-8A51-70E32E682772}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38C7F88-4381-44F2-B199-D4EEA41B1258}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2668,7 +3238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2769,49 +3339,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9743</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9983</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>31</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19726</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,49 +3390,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>648</v>
+        <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1819</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>648</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,49 +3441,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>9743</v>
+        <v>1284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>10631</v>
+        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>20374</v>
+        <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,49 +3494,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>127850</v>
+        <v>3196</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>119217</v>
+        <v>2839</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
-        <v>364</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>247067</v>
+        <v>6035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +3545,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>5816</v>
+        <v>78933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I8" s="7">
-        <v>11170</v>
+        <v>65804</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="N8" s="7">
-        <v>16986</v>
+        <v>144737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,49 +3596,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>133666</v>
+        <v>82129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="I9" s="7">
-        <v>130387</v>
+        <v>68643</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>388</v>
+        <v>223</v>
       </c>
       <c r="N9" s="7">
-        <v>264053</v>
+        <v>150772</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,49 +3649,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>216607</v>
+        <v>7796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>214819</v>
+        <v>13887</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
-        <v>596</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>431426</v>
+        <v>21683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,49 +3700,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="D11" s="7">
-        <v>8629</v>
+        <v>141545</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="I11" s="7">
-        <v>7363</v>
+        <v>135030</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>390</v>
       </c>
       <c r="N11" s="7">
-        <v>15992</v>
+        <v>276575</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,102 +3751,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>225236</v>
+        <v>149341</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>222182</v>
+        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>619</v>
+        <v>421</v>
       </c>
       <c r="N12" s="7">
-        <v>447418</v>
+        <v>298258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>354199</v>
+        <v>3453</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>344020</v>
+        <v>2454</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
-        <v>991</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>698219</v>
+        <v>5907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,49 +3855,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="D14" s="7">
-        <v>14445</v>
+        <v>132438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="I14" s="7">
-        <v>19181</v>
+        <v>142651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
-        <v>48</v>
+        <v>383</v>
       </c>
       <c r="N14" s="7">
-        <v>33626</v>
+        <v>275089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,55 +3906,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>184</v>
+      </c>
+      <c r="D15" s="7">
+        <v>135891</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>208</v>
+      </c>
+      <c r="I15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>392</v>
+      </c>
+      <c r="N15" s="7">
+        <v>280996</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14445</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="7">
+        <v>28</v>
+      </c>
+      <c r="I16" s="7">
+        <v>19181</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="7">
+        <v>48</v>
+      </c>
+      <c r="N16" s="7">
+        <v>33626</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>491</v>
+      </c>
+      <c r="D17" s="7">
+        <v>354199</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="7">
+        <v>500</v>
+      </c>
+      <c r="I17" s="7">
+        <v>344020</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M17" s="7">
+        <v>991</v>
+      </c>
+      <c r="N17" s="7">
+        <v>698219</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>511</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>368644</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>528</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>363201</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1039</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>731845</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3397,8 +4128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1DED62-153F-4E39-A552-36617F768A46}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD034CDD-9CBD-43EB-B0D0-BA076DE6FCFF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3414,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3515,49 +4246,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>20767</v>
+        <v>678</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>31</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15760</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>678</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>68</v>
-      </c>
-      <c r="N4" s="7">
-        <v>36527</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,49 +4297,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>678</v>
+        <v>4606</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>391</v>
+        <v>5917</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>18</v>
+      </c>
+      <c r="N5" s="7">
+        <v>10523</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1069</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,49 +4348,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>21445</v>
+        <v>5284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>16151</v>
+        <v>5917</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>37596</v>
+        <v>11201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,49 +4401,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>119541</v>
+        <v>2500</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>102227</v>
+        <v>4052</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>221768</v>
+        <v>6552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,49 +4452,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7">
-        <v>4179</v>
+        <v>70882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="7">
         <v>96</v>
       </c>
-      <c r="H8" s="7">
-        <v>14</v>
-      </c>
       <c r="I8" s="7">
-        <v>9305</v>
+        <v>63018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="N8" s="7">
-        <v>13484</v>
+        <v>133900</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,49 +4503,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>123720</v>
+        <v>73382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>111532</v>
+        <v>67070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>235252</v>
+        <v>140452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,49 +4556,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>364</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>309813</v>
+        <v>5376</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>263872</v>
+        <v>8961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
-        <v>721</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>573684</v>
+        <v>14337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,49 +4607,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="D11" s="7">
-        <v>9824</v>
+        <v>151831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="I11" s="7">
-        <v>8469</v>
+        <v>115163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>329</v>
       </c>
       <c r="N11" s="7">
-        <v>18294</v>
+        <v>266994</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,102 +4658,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>319637</v>
+        <v>157207</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>272341</v>
+        <v>124124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>745</v>
+        <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>591978</v>
+        <v>281331</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>550</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>450121</v>
+        <v>6128</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
-        <v>528</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>381859</v>
+        <v>5152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
-        <v>1078</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>831979</v>
+        <v>11279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,49 +4762,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="D14" s="7">
-        <v>14682</v>
+        <v>222803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="I14" s="7">
-        <v>18165</v>
+        <v>197760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
-        <v>46</v>
+        <v>530</v>
       </c>
       <c r="N14" s="7">
-        <v>32847</v>
+        <v>420564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,55 +4813,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>268</v>
+      </c>
+      <c r="D15" s="7">
+        <v>228931</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>277</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202912</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>545</v>
+      </c>
+      <c r="N15" s="7">
+        <v>431843</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14682</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="7">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7">
+        <v>18165</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M16" s="7">
+        <v>46</v>
+      </c>
+      <c r="N16" s="7">
+        <v>32847</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>550</v>
+      </c>
+      <c r="D17" s="7">
+        <v>450121</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="7">
+        <v>528</v>
+      </c>
+      <c r="I17" s="7">
+        <v>381859</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1078</v>
+      </c>
+      <c r="N17" s="7">
+        <v>831979</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>464803</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>554</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>400024</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1124</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>864826</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A9E37C-4F17-4CD0-94F3-BBF4E48B6F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{608DCCB5-A087-430C-AE0C-5424607080EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32E8A1BA-D7FC-44F3-A29B-C1AD2EDB4BC8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C17A752-97B0-4385-B367-4DD1A7F0700E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -113,889 +113,877 @@
     <t>4,29%</t>
   </si>
   <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>1,71%</t>
   </si>
   <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2016 (Tasa respuesta: 48,87%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>90,66%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>89,74%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2015 (Tasa respuesta: 48,87%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6AB9E-1333-411F-9197-C55614E6E335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72036A98-F4FC-4D53-BD67-DC5E31E7182B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2184,10 +2172,10 @@
         <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2190,13 @@
         <v>336112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>492</v>
@@ -2217,13 +2205,13 @@
         <v>330411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>999</v>
@@ -2232,13 +2220,13 @@
         <v>666523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2282,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4CB9F8-6433-4571-9486-C28D900622C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E983F045-FAC1-40AF-A679-E886FB35FC49}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2444,7 +2432,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2459,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2492,7 +2480,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2507,7 +2495,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2593,13 +2581,13 @@
         <v>5320</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -2608,13 +2596,13 @@
         <v>6807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2623,13 +2611,13 @@
         <v>12127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2632,13 @@
         <v>86744</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>101</v>
@@ -2659,7 +2647,7 @@
         <v>70881</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>114</v>
@@ -3201,7 +3189,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3221,7 +3209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38C7F88-4381-44F2-B199-D4EEA41B1258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA0882-DF4C-403E-A6A0-007DCCD81CE4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3366,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3414,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3530,13 +3518,13 @@
         <v>6035</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,10 +3569,10 @@
         <v>144737</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>185</v>
@@ -3673,10 +3661,10 @@
         <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -3685,13 +3673,13 @@
         <v>21683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3694,13 @@
         <v>141545</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
@@ -3721,13 +3709,13 @@
         <v>135030</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>390</v>
@@ -3736,13 +3724,13 @@
         <v>276575</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3798,13 @@
         <v>3453</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3825,13 +3813,13 @@
         <v>2454</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3840,13 +3828,13 @@
         <v>5907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,10 +3849,10 @@
         <v>132438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>213</v>
@@ -4108,7 +4096,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4128,7 +4116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD034CDD-9CBD-43EB-B0D0-BA076DE6FCFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51357A1-D058-479F-9605-67FED7BE27E4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4443,7 +4431,7 @@
         <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4446,13 @@
         <v>70882</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -4473,13 +4461,13 @@
         <v>63018</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>201</v>
@@ -4488,13 +4476,13 @@
         <v>133900</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4550,13 @@
         <v>5376</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4577,13 +4565,13 @@
         <v>8961</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4592,13 +4580,13 @@
         <v>14337</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4601,13 @@
         <v>151831</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>151</v>
@@ -4628,13 +4616,13 @@
         <v>115163</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>329</v>
@@ -4643,13 +4631,13 @@
         <v>266994</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4705,13 @@
         <v>6128</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4732,13 +4720,13 @@
         <v>5152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4747,13 +4735,13 @@
         <v>11279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4756,13 @@
         <v>222803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -4783,13 +4771,13 @@
         <v>197760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>530</v>
@@ -4798,13 +4786,13 @@
         <v>420564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4860,13 @@
         <v>14682</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -4887,13 +4875,13 @@
         <v>18165</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4902,13 +4890,13 @@
         <v>32847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4911,13 @@
         <v>450121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>528</v>
@@ -4938,13 +4926,13 @@
         <v>381859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>1078</v>
@@ -4953,13 +4941,13 @@
         <v>831979</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,7 +5003,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{608DCCB5-A087-430C-AE0C-5424607080EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FB6DC0-F5A8-46D3-8660-132B78D2D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C17A752-97B0-4385-B367-4DD1A7F0700E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AFE488FA-678C-482D-8166-3EECA86968BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="307">
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
@@ -95,577 +95,565 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
     <t>4,29%</t>
   </si>
   <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>1,68%</t>
   </si>
   <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2016 (Tasa respuesta: 48,87%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2016 (Tasa respuesta: 48,87%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -674,316 +662,304 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>96,24%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por extracción de algún diente o muela en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
   </si>
   <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72036A98-F4FC-4D53-BD67-DC5E31E7182B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ECED06-535E-4C8A-AB26-B9BDBA2AB4F1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1564,10 +1540,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1893</v>
+        <v>3906</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1579,10 +1555,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3906</v>
+        <v>1893</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1615,25 +1591,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1893</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1668,10 +1644,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3454</v>
+        <v>2273</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1683,10 +1659,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>2273</v>
+        <v>3454</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1719,10 +1695,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D8" s="7">
-        <v>76964</v>
+        <v>82062</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1734,10 +1710,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I8" s="7">
-        <v>82062</v>
+        <v>76964</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1770,25 +1746,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80418</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1823,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>9932</v>
+        <v>4559</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1838,10 +1814,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>4559</v>
+        <v>9932</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1874,10 +1850,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7">
-        <v>95787</v>
+        <v>94634</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1889,10 +1865,10 @@
         <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I11" s="7">
-        <v>94634</v>
+        <v>95787</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1925,25 +1901,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>105719</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1978,10 +1954,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>12234</v>
+        <v>13688</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -1993,10 +1969,10 @@
         <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>13688</v>
+        <v>12234</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
@@ -2029,10 +2005,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D14" s="7">
-        <v>161467</v>
+        <v>149809</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -2044,10 +2020,10 @@
         <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>149809</v>
+        <v>161467</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -2080,25 +2056,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>261</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173701</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>163497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2133,10 +2109,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>25619</v>
+        <v>20519</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2148,10 +2124,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>20519</v>
+        <v>25619</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>82</v>
@@ -2172,10 +2148,10 @@
         <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,34 +2160,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>492</v>
+      </c>
+      <c r="D17" s="7">
+        <v>330411</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="7">
         <v>507</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>336112</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="7">
-        <v>492</v>
-      </c>
-      <c r="I17" s="7">
-        <v>330411</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>999</v>
@@ -2220,13 +2196,13 @@
         <v>666523</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,25 +2211,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>522</v>
+      </c>
+      <c r="D18" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>545</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>361731</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>522</v>
-      </c>
-      <c r="I18" s="7">
-        <v>350930</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2282,7 +2258,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E983F045-FAC1-40AF-A679-E886FB35FC49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83951323-93E8-43EE-995F-616870216CE6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2319,7 +2295,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2432,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2447,7 +2423,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2462,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,31 +2447,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>669</v>
+        <v>3298</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>3298</v>
+        <v>669</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2510,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2522,25 +2498,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>669</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2575,34 +2551,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6807</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="7">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5320</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6807</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2611,13 +2587,13 @@
         <v>12127</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,28 +2602,28 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>101</v>
+      </c>
+      <c r="D8" s="7">
+        <v>70881</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="7">
         <v>117</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>86744</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="H8" s="7">
-        <v>101</v>
-      </c>
-      <c r="I8" s="7">
-        <v>70881</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>114</v>
@@ -2677,25 +2653,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7">
+        <v>77688</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>124</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>92064</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>110</v>
-      </c>
-      <c r="I9" s="7">
-        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2733,31 +2709,31 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>7181</v>
+        <v>6808</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>6808</v>
+        <v>7181</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -2769,10 +2745,10 @@
         <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,34 +2757,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>168</v>
+      </c>
+      <c r="D11" s="7">
+        <v>118278</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7">
         <v>180</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>124905</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H11" s="7">
-        <v>168</v>
-      </c>
-      <c r="I11" s="7">
-        <v>118278</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M11" s="7">
         <v>348</v>
@@ -2817,13 +2793,13 @@
         <v>243183</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,25 +2808,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>178</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125086</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>190</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132086</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>178</v>
-      </c>
-      <c r="I12" s="7">
-        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2885,34 +2861,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8605</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>8478</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8605</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2921,13 +2897,13 @@
         <v>17083</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,34 +2912,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>198</v>
+      </c>
+      <c r="D14" s="7">
+        <v>139315</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="7">
         <v>197</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>132705</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="7">
-        <v>198</v>
-      </c>
-      <c r="I14" s="7">
-        <v>139315</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>395</v>
@@ -2972,13 +2948,13 @@
         <v>272020</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,25 +2963,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>209</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141183</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>211</v>
-      </c>
-      <c r="I15" s="7">
-        <v>147920</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3040,34 +3016,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7">
+        <v>22220</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="7">
         <v>29</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20978</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="7">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22220</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3076,13 +3052,13 @@
         <v>43199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +3067,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>472</v>
+      </c>
+      <c r="D17" s="7">
+        <v>331771</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="7">
         <v>495</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>345024</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>472</v>
-      </c>
-      <c r="I17" s="7">
-        <v>331771</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>967</v>
       </c>
       <c r="N17" s="7">
-        <v>676793</v>
+        <v>676794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,25 +3118,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>504</v>
+      </c>
+      <c r="D18" s="7">
+        <v>353991</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>524</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>366002</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>504</v>
-      </c>
-      <c r="I18" s="7">
-        <v>353991</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3175,7 +3151,7 @@
         <v>1028</v>
       </c>
       <c r="N18" s="7">
-        <v>719992</v>
+        <v>719993</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3189,7 +3165,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA0882-DF4C-403E-A6A0-007DCCD81CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B4E64-4294-4E6E-8EC2-D9B8C9A5836E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3226,7 +3202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3339,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3354,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3369,7 +3345,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,31 +3354,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1284</v>
+        <v>536</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>536</v>
+        <v>1284</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3417,7 +3393,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3429,25 +3405,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3485,31 +3461,31 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3196</v>
+        <v>2839</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2839</v>
+        <v>3196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3518,13 +3494,13 @@
         <v>6035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,34 +3509,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>101</v>
+      </c>
+      <c r="D8" s="7">
+        <v>65804</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="7">
         <v>114</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>78933</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="7">
-        <v>101</v>
-      </c>
-      <c r="I8" s="7">
-        <v>65804</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>215</v>
@@ -3569,13 +3545,13 @@
         <v>144737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,25 +3560,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>105</v>
+      </c>
+      <c r="D9" s="7">
+        <v>68643</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>118</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>82129</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>105</v>
-      </c>
-      <c r="I9" s="7">
-        <v>68643</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3637,34 +3613,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7">
+        <v>13887</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>7796</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13887</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -3673,13 +3649,13 @@
         <v>21683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,34 +3664,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>194</v>
+      </c>
+      <c r="D11" s="7">
+        <v>135030</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="7">
         <v>196</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>141545</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="7">
-        <v>194</v>
-      </c>
-      <c r="I11" s="7">
-        <v>135030</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>390</v>
@@ -3724,13 +3700,13 @@
         <v>276575</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,25 +3715,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>148917</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>207</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149341</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3792,34 +3768,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2454</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3453</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2454</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3828,13 +3804,13 @@
         <v>5907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,34 +3819,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>204</v>
+      </c>
+      <c r="D14" s="7">
+        <v>142651</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="7">
         <v>179</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>132438</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="7">
-        <v>204</v>
-      </c>
-      <c r="I14" s="7">
-        <v>142651</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>383</v>
@@ -3879,13 +3855,13 @@
         <v>275089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,25 +3870,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>208</v>
+      </c>
+      <c r="D15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>184</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>135891</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>208</v>
-      </c>
-      <c r="I15" s="7">
-        <v>145105</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3947,34 +3923,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19181</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="7">
         <v>20</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>14445</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H16" s="7">
-        <v>28</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19181</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -3983,13 +3959,13 @@
         <v>33626</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,34 +3974,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>500</v>
+      </c>
+      <c r="D17" s="7">
+        <v>344020</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="7">
         <v>491</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>354199</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="7">
-        <v>500</v>
-      </c>
-      <c r="I17" s="7">
-        <v>344020</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>991</v>
@@ -4034,13 +4010,13 @@
         <v>698219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,25 +4025,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>528</v>
+      </c>
+      <c r="D18" s="7">
+        <v>363201</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>511</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>368644</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>528</v>
-      </c>
-      <c r="I18" s="7">
-        <v>363201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4096,7 +4072,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4116,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51357A1-D058-479F-9605-67FED7BE27E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02208A37-211B-4D2B-85F0-5681F1DE30D9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4133,7 +4109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4234,49 +4210,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>678</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>707</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,46 +4261,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
-        <v>4606</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>4609</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5917</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>10523</v>
+        <v>10406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4336,25 +4312,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
       <c r="I6" s="7">
-        <v>5917</v>
+        <v>5316</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4369,7 +4345,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4389,49 +4365,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4022</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
-        <v>2500</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>2751</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4052</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>6552</v>
+        <v>6773</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,49 +4416,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>96</v>
+      </c>
+      <c r="D8" s="7">
+        <v>62174</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="7">
         <v>105</v>
       </c>
-      <c r="D8" s="7">
-        <v>70882</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>74380</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" s="7">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7">
-        <v>63018</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>201</v>
       </c>
       <c r="N8" s="7">
-        <v>133900</v>
+        <v>136554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,25 +4467,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66196</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>108</v>
       </c>
-      <c r="D9" s="7">
-        <v>73382</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>103</v>
-      </c>
       <c r="I9" s="7">
-        <v>67070</v>
+        <v>77131</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4524,7 +4500,7 @@
         <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>140452</v>
+        <v>143327</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4544,49 +4520,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8671</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
-        <v>5376</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>5727</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8961</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>14337</v>
+        <v>14398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,49 +4571,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>151</v>
+      </c>
+      <c r="D11" s="7">
+        <v>113232</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="7">
         <v>178</v>
       </c>
-      <c r="D11" s="7">
-        <v>151831</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H11" s="7">
-        <v>151</v>
-      </c>
       <c r="I11" s="7">
-        <v>115163</v>
+        <v>159061</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>329</v>
       </c>
       <c r="N11" s="7">
-        <v>266994</v>
+        <v>272293</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,25 +4622,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7">
+        <v>121903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>186</v>
       </c>
-      <c r="D12" s="7">
-        <v>157207</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>163</v>
-      </c>
       <c r="I12" s="7">
-        <v>124124</v>
+        <v>164788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4679,7 +4655,7 @@
         <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>281331</v>
+        <v>286691</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4699,49 +4675,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5686</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
-        <v>6128</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
       <c r="I13" s="7">
-        <v>5152</v>
+        <v>6424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>11279</v>
+        <v>12109</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,49 +4726,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>270</v>
+      </c>
+      <c r="D14" s="7">
+        <v>192051</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="7">
         <v>260</v>
       </c>
-      <c r="D14" s="7">
-        <v>222803</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H14" s="7">
-        <v>270</v>
-      </c>
       <c r="I14" s="7">
-        <v>197760</v>
+        <v>230784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>530</v>
       </c>
       <c r="N14" s="7">
-        <v>420564</v>
+        <v>422836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,25 +4777,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>277</v>
+      </c>
+      <c r="D15" s="7">
+        <v>197737</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>268</v>
       </c>
-      <c r="D15" s="7">
-        <v>228931</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>277</v>
-      </c>
       <c r="I15" s="7">
-        <v>202912</v>
+        <v>237208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4834,7 +4810,7 @@
         <v>545</v>
       </c>
       <c r="N15" s="7">
-        <v>431843</v>
+        <v>434945</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4854,49 +4830,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18379</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" s="7">
         <v>20</v>
       </c>
-      <c r="D16" s="7">
-        <v>14682</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>15609</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18165</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
       </c>
       <c r="N16" s="7">
-        <v>32847</v>
+        <v>33988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,49 +4881,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>528</v>
+      </c>
+      <c r="D17" s="7">
+        <v>373254</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" s="7">
         <v>550</v>
       </c>
-      <c r="D17" s="7">
-        <v>450121</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H17" s="7">
-        <v>528</v>
-      </c>
       <c r="I17" s="7">
-        <v>381859</v>
+        <v>468835</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>1078</v>
       </c>
       <c r="N17" s="7">
-        <v>831979</v>
+        <v>842088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,25 +4932,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>554</v>
+      </c>
+      <c r="D18" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>570</v>
       </c>
-      <c r="D18" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>554</v>
-      </c>
       <c r="I18" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4989,7 +4965,7 @@
         <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5003,7 +4979,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
